--- a/biology/Botanique/Eucalyptus_jacksonii/Eucalyptus_jacksonii.xlsx
+++ b/biology/Botanique/Eucalyptus_jacksonii/Eucalyptus_jacksonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus jacksonii, aussi appelé « Red Tingle » en anglais, est une espèce d'Eucalyptus de la famille des Myrtaceae poussant au sud-ouest de l'Australie occidentale.
-On le trouve au nord et à l'est de la ville de Walpole, notamment dans le Parc national Walpole-Nornalup (en), dans des formations boisées à « karri » (Eucalyptus diversicolor), à « Rates tingle » (E. brevistylis), « yellow tingle » (E. guilfoylei) et à « red flowering gum » (Corymbia ficifolia)[2].
+On le trouve au nord et à l'est de la ville de Walpole, notamment dans le Parc national Walpole-Nornalup (en), dans des formations boisées à « karri » (Eucalyptus diversicolor), à « Rates tingle » (E. brevistylis), « yellow tingle » (E. guilfoylei) et à « red flowering gum » (Corymbia ficifolia).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre atteignant 24 mètres de circonférence, 75 mètres de haut et pouvant vivre jusqu'à 400 ans[3],[4].
-Ses bourgeons sont plus gros que ceux des spécimens d'Eucalyptus brevistylis[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre atteignant 24 mètres de circonférence, 75 mètres de haut et pouvant vivre jusqu'à 400 ans,.
+Ses bourgeons sont plus gros que ceux des spécimens d'Eucalyptus brevistylis.
 </t>
         </is>
       </c>
